--- a/Post-Lab 7/ControldePracticas202225 (1) (1) (1)-1.xlsx
+++ b/Post-Lab 7/ControldePracticas202225 (1) (1) (1)-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\pascal\Post-Lab 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\pascal\Post-Lab 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -941,6 +941,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1033,46 +1073,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="K8" s="34">
         <f>SUM(DetalleAutoEvaluación!L19:L20)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L8" s="35">
         <f>SUM(DetalleAutoEvaluación!L21:L22)</f>
@@ -1636,7 +1636,7 @@
   <dimension ref="D2:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,27 +1685,27 @@
       <c r="E4" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="115" t="s">
+      <c r="F4" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="117"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
       <c r="M4" s="73"/>
     </row>
     <row r="5" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E5" s="37"/>
       <c r="F5" s="38"/>
-      <c r="G5" s="88" t="s">
+      <c r="G5" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="90"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
       <c r="L5" s="39"/>
       <c r="M5" s="37"/>
     </row>
@@ -1742,10 +1742,10 @@
       </c>
     </row>
     <row r="7" spans="4:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="107">
-        <v>1</v>
-      </c>
-      <c r="E7" s="109" t="s">
+      <c r="D7" s="80">
+        <v>1</v>
+      </c>
+      <c r="E7" s="82" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="45">
@@ -1773,8 +1773,8 @@
       <c r="M7" s="6"/>
     </row>
     <row r="8" spans="4:13" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="108"/>
-      <c r="E8" s="110"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="83"/>
       <c r="F8" s="46">
         <v>2</v>
       </c>
@@ -1800,10 +1800,10 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="4:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="111">
+      <c r="D9" s="84">
         <v>2</v>
       </c>
-      <c r="E9" s="113" t="s">
+      <c r="E9" s="86" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="47">
@@ -1831,8 +1831,8 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="4:13" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="112"/>
-      <c r="E10" s="114"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="87"/>
       <c r="F10" s="48">
         <v>2</v>
       </c>
@@ -1858,10 +1858,10 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="4:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="103">
+      <c r="D11" s="114">
         <v>3</v>
       </c>
-      <c r="E11" s="105" t="s">
+      <c r="E11" s="116" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="49">
@@ -1889,8 +1889,8 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="4:13" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="104"/>
-      <c r="E12" s="106"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="117"/>
       <c r="F12" s="50">
         <v>2</v>
       </c>
@@ -1916,10 +1916,10 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="4:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="91">
+      <c r="D13" s="102">
         <v>4</v>
       </c>
-      <c r="E13" s="93" t="s">
+      <c r="E13" s="104" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="51">
@@ -1947,8 +1947,8 @@
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="4:13" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="92"/>
-      <c r="E14" s="94"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="105"/>
       <c r="F14" s="52">
         <v>2</v>
       </c>
@@ -1974,10 +1974,10 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="4:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="95">
+      <c r="D15" s="106">
         <v>5</v>
       </c>
-      <c r="E15" s="97" t="s">
+      <c r="E15" s="108" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="53">
@@ -2005,8 +2005,8 @@
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="4:13" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="96"/>
-      <c r="E16" s="98"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="109"/>
       <c r="F16" s="54">
         <v>2</v>
       </c>
@@ -2032,10 +2032,10 @@
       <c r="M16" s="17"/>
     </row>
     <row r="17" spans="4:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="99">
+      <c r="D17" s="110">
         <v>6</v>
       </c>
-      <c r="E17" s="101" t="s">
+      <c r="E17" s="112" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="55">
@@ -2063,8 +2063,8 @@
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="4:13" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="100"/>
-      <c r="E18" s="102"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="113"/>
       <c r="F18" s="56">
         <v>2</v>
       </c>
@@ -2090,10 +2090,10 @@
       <c r="M18" s="20"/>
     </row>
     <row r="19" spans="4:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="80">
+      <c r="D19" s="91">
         <v>7</v>
       </c>
-      <c r="E19" s="82" t="s">
+      <c r="E19" s="93" t="s">
         <v>5</v>
       </c>
       <c r="F19" s="57">
@@ -2112,17 +2112,17 @@
         <v>0</v>
       </c>
       <c r="K19" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="4:13" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="81"/>
-      <c r="E20" s="83"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="94"/>
       <c r="F20" s="58">
         <v>2</v>
       </c>
@@ -2139,19 +2139,19 @@
         <v>0</v>
       </c>
       <c r="K20" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M20" s="17"/>
     </row>
     <row r="21" spans="4:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="84">
+      <c r="D21" s="95">
         <v>8</v>
       </c>
-      <c r="E21" s="86" t="s">
+      <c r="E21" s="97" t="s">
         <v>6</v>
       </c>
       <c r="F21" s="59">
@@ -2179,8 +2179,8 @@
       <c r="M21" s="6"/>
     </row>
     <row r="22" spans="4:13" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="85"/>
-      <c r="E22" s="87"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="98"/>
       <c r="F22" s="60">
         <v>2</v>
       </c>
@@ -2216,12 +2216,6 @@
   </sheetData>
   <sheetProtection password="CC2F" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="D2:M2"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F4:L4"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="D21:D22"/>
@@ -2235,6 +2229,12 @@
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToWidth="0" orientation="portrait" r:id="rId1"/>
